--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/28_Edirne_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/28_Edirne_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70B6DC44-0C63-4470-9E6A-C44B954C64EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{262E8E11-648D-457A-9722-6F741304A18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{6721F6B2-C0F3-47E4-A849-94FD32B58D85}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{7BB4FD52-9488-4F85-AABA-F2AFD02C5B3A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -938,14 +938,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{EFB02945-706B-4C89-9163-2B8B533D377F}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{FFA8A130-4D58-4F3D-BA92-C5DC07921401}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{9C454ABC-E4E5-4F21-8B11-CF4D0AC4A9ED}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{B1466680-081D-4B73-973C-70BBC24215A3}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{099F1E3E-8862-47E5-AC97-64E47855E3C8}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{B778A0CB-C9F8-493E-A5ED-F96DAB6220EC}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{41B349DA-BFAF-4CE5-A1D3-DD737A8390D4}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{4F39F61D-F14C-4ECB-A6DE-D241138E1BE9}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{3290B100-11A2-4C21-9CAB-A30738E30AC0}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{72535CBD-8A50-4C2F-8042-3BA3C4AF63B1}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{3034D6E6-E361-4B37-95E9-3B650D343850}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{97A26C98-F09E-4CE3-B81F-907C32FAA2C0}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{D9D6E370-1B57-4C16-B7F0-AA3A2D3721A0}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{68AB4AF7-CC44-4DA6-9190-9059D0C2E0E3}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{6D1B083E-21A6-4C2D-A5FA-A2A233DB9963}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{CCC3D2CD-4D84-40F2-87C9-D16C6AEAC6E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280DFD76-8597-400E-A3E2-60583717EC81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F051610-0740-4ED3-BBCC-4021A5267590}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2579,18 +2579,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{42CA6F88-19A1-4E6D-A610-1BE6A44851A9}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{B758DDF9-D0AC-4161-A8DB-4236C01B2BB6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{827AE5F0-3420-47EA-AB16-DA0A4B36FC11}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{90CA9D4A-AA49-47A2-A478-FF7602B407B0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{726D9B8D-861D-4655-878A-524D28B8BE1A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B8C168FD-2AE9-42B7-B7B2-3EFACF1FEDF9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E9847F0-06C5-4A53-8364-AC4A1DD714B4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A8185686-B029-4653-86F0-EFE398C0AB8B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EBBA1D57-984E-43C9-8EE8-A998E68CDF54}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1851EA17-4E47-4F8C-8690-70C49667CFF3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{78C990E0-DCE2-499B-AD32-A607CFE25E39}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{787702A8-003D-4100-80FF-A471D740023F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC56DD2C-DD5C-439A-8694-A88539E28213}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{15E9FEFB-2A5C-4056-B4F5-60649ED4EFE5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65620FB1-5442-4AFE-958D-70BF2B98375A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3EC5E6FB-26F7-48AF-95A8-8656D7DF605D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{28880EB9-837D-4927-BD62-E0D6D7DB7FC4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4932C6A5-393D-4393-ACDC-F74B8D81B59D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4C238ABB-9801-4C1D-B261-A25C26453745}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8038D1E3-B678-4FE2-A235-D56D41E603BD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C6A52466-9BF2-4328-A4C3-6272B09907C0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7B8A2F3B-53A0-4DBD-9475-3020BAE2C905}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A20FCCA2-C61B-40E1-A7FA-9E27FA588D41}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{03CBDEB0-B690-45FB-B2D6-97B291AFE610}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2603,7 +2603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2545166-586D-4393-991C-B8AD7C63E075}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143ADF07-94C1-405D-A56C-2688E6E031AB}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3847,18 +3847,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{49BB96FA-A99F-4CF0-B56A-8AC850C56636}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{0573DD84-4F56-45E6-B999-D80B426A915F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BFEB09A1-877D-4408-A8FB-0CF008A26F73}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D6550F41-67C5-4AC2-AC01-30D2CA2EF61A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1DA235F9-14D7-4122-B607-039F931A3ABA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5F76B5FD-DF97-4955-8BBF-05DD37B4D2F2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{15C55D3C-EB65-434E-A190-DE9811929A0A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1E98E4E-3F26-470A-ABBA-B239955A8452}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56977049-0095-4C2F-8823-6DA66BD2B950}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4BCF5050-2C93-4AD6-9392-62D110755B15}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5BEC26C8-826F-4CE5-ABF3-49599D15F641}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9A40CD5F-BC8B-438C-B8AA-34510AD4AD9C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C215F0D8-A19B-4EF9-899F-7B2E85C42DE3}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{2D7FC131-6EA7-4B17-8ED5-43763D45C558}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{12CE8949-7FB3-463A-BFF6-B89563C2852F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F0DB57B9-8175-44E6-B246-8EF892312086}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F42A3487-88EE-47D9-A1C2-8E27858B3682}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DDEF31CE-763D-4EBF-B181-A477E0ED52F9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AE5FBC8F-1E32-4DD9-B1C5-ECE9719530ED}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF175A42-594A-4847-B394-20410A1F9B42}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F66B6B9B-EEB9-4167-8C07-7A5A8F8FC864}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F5C9791C-296E-482F-BDD4-9230D798FABA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{78D800A2-AD49-4904-BF91-34249B12D608}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D41DB34F-BCF5-4F5D-8CEE-C0C41150060E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3871,7 +3871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80959D48-858C-430C-A87E-23A78B0C34EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797880D4-C191-4BF4-8A39-3CE2A8F2F551}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5115,17 +5115,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A5EC3B83-C4FB-4457-8E36-3EE0D78C0A1A}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{71B980EF-6B2D-453F-98C2-06D046D48144}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B8C3C153-1C64-409F-A774-959F297367DC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2F189101-F1CE-4020-81AE-B359DCD45BAD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CED553A7-13C1-4FEE-9A1E-367D55989FCD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8B60EFE9-95BC-4823-A971-14B23934B99F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F465FC0-54E5-4365-8A26-B4F522676D63}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CE9552C4-37BA-4E0C-BDC7-C9FC7F9181EC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5B439219-93A0-49B6-9490-1C085C210F22}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{941C4C67-D063-4AA3-94CB-7A6197138010}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A457DB2F-4745-4AC7-87AD-B433D0788F87}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6718282E-E2C5-4230-9E09-67A11C649E72}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{290BCA50-A4EA-4DD8-A0C7-27490A6D4D2F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AC4D4EE8-13AE-4976-B941-1B0837EF267F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{67E85266-20C8-495E-A357-98318C5EDD23}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8C9F46AD-14EE-4B24-A363-41CCF1B630A2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{83E65AE1-9D34-464C-A0AA-0F87C14E4806}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2184A567-FD54-4C91-9AB2-3B0F0893EC02}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8535F6CA-8DBA-42F6-A93E-7E9033B6A199}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8F9CA89E-A7AD-48BD-8E2B-608D6E63F6C9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D54896F4-765C-4BAF-B6B8-94CD801D87BB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{02A1E0D1-37A0-442A-B078-3096FCF8B84A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5138,7 +5138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DCD475-8FE7-4E36-A689-D32827C3E79F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D3EDD1-F5E1-4D05-9EEE-2B8F88FFC80F}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6374,18 +6374,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E86F7704-F5AE-4163-917C-EFEBCFEC234A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{673AE39C-907E-4B44-AD05-BE645A302257}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{C3430D80-1AC9-4A1A-A969-28D031D01D11}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4AB3D151-2E54-47E9-8992-E5269D280DCB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E82CB90D-A59C-4E78-A494-AC6D70CC3247}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BD8ECCD2-34C4-4A23-9910-74CB6A94B112}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{804639C8-8AF6-4501-8A40-47904B000C1F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9B680AF-821E-4A1C-89D1-35B048661CBE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2EF9F091-F3EF-440C-AC6E-99B0D580AB26}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8AAE9B79-A94A-4C3B-828A-A4D2FAFB0CDA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{04EC6713-2049-4898-8864-6620341D401D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F451ADC3-71EE-4B7B-BFB5-C8BF1F491648}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7D1B71F8-7FAC-441A-9664-3FEBA40EB2E3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D7055C8D-1776-4F8C-9AEC-126380102CCA}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A0366A4E-146B-4B54-9F83-39BFD1C33B7A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{18C0528C-488E-4535-8E4F-7B836C1C3242}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{01944C30-5AB5-4006-AD17-0B6AD2A49128}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{865F3D70-B5FC-42C6-8C6D-13BC536D3E26}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC2759A1-4DB7-470C-88E1-71E8D0A0C687}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CB8A3B8-0FBE-4B8A-ADE1-228F5C817024}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{388CCC2D-609B-45F2-8591-BE87DE2771AE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{614AA104-9ECE-4C32-83F3-B0BFA3F8A6B6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA7B8D1F-118F-497C-AAEA-EB55F38B5B45}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DE1EA3CD-D3DC-436D-88C7-8DA2379FE76F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6398,7 +6398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF7498A-F115-4FB9-9678-78E74CCC825B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEB1C8B-C407-4663-AA0B-610A8450D87B}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7662,18 +7662,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E322BCB-6A19-47A7-9F46-90BE8ED79715}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{7EAAC5DD-8E53-40EA-82A8-59EAEAE6CA11}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C4E4A185-8066-4D71-ACD6-92E5DE8B8856}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F60FF3B0-F32F-4D27-B1DE-B144B1BBEB12}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C80043F1-E1A9-4B74-8109-2C1DDC5565C1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FA41FBE7-2477-4CC8-8428-273E3EE8729D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{78990903-8FBE-47B9-BFF4-71C95D4381FC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{01EB1B9D-752D-430A-B6ED-6835132F051C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AA18705D-C554-4092-AE55-F989E54E17BE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{19280781-3B05-417B-B74E-3805C3927FD2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F906E0AC-4123-4F9B-AC8F-726F164A4436}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DFF100CD-D563-4280-829B-CF6B05B2F9AB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D1A1AD70-A96E-45FC-8326-48E715F43E47}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{CFB03360-56AA-4A52-9FF3-D479F8F6BDDE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5AA39D4-FA87-4035-8FF3-DB3971DFBD1B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{915474DB-6BC7-4648-95B4-163AF173653B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{841B4FAA-A274-4B05-BF89-D6C605CF2ECC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0908195E-C12D-4A09-8619-B1ED359D1FAE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{069F573E-6B74-4CC7-A2AE-1FADE8AE7241}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E662C56E-D6B0-4AF2-8F44-FF0900467364}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FA101D91-DD63-4264-988B-47A23C19EF48}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{849C73BC-6383-4158-A09C-02DEC8F39FBF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{523FAE6D-351A-40CC-B898-D9153FAB7D2B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{34504EB7-03AE-4602-8A8B-1D5E6951D539}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7686,7 +7686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC37738-7A87-41B0-BC07-818DD03869B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B90657B-EEF6-4E55-B296-7C0F3B52CEF8}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8946,18 +8946,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B2C77C5-CAF0-4BE6-BA2C-0D9259B7BD5C}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{BC7CBD3B-E17A-4439-A737-4F1D6C594E5F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C4F9A1B9-DA90-41F9-A054-58347B4324D6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{57D76667-473E-4BC6-8D80-5FC030D39A92}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6672371C-3789-428B-8D0D-2B79FF418A47}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{72D69AD7-2DED-487C-BE80-F18C4C68D4F5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F659C144-2F67-4F80-A67A-FA518EFA004A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1B439FB-C80C-44EB-B276-8F374DEF068F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4DE7A3ED-4081-4926-838C-F03757F294B7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1B8321E2-6629-4E2F-8395-5C438961EA6F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{939B67F1-A15C-47B8-BD91-95288644B787}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A205B114-B9BC-4016-AAAF-1E4CF9B6DD1D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ED9313BC-681F-4670-B5B8-74922A9045CA}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{3B797EC3-CD9F-4EA5-A1D6-476B2F2D530B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1F65DD2E-BCDF-4D4C-9D8B-2B43D0DA2607}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{91329C28-DF08-4EE3-B8D4-2C4BC85F485C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6CB1570D-4F0C-40A8-988A-FED79CF8C567}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5CA8119F-17DF-4796-8469-F0C6E386CC4C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{13D277FF-39F8-4218-A3E9-E01D44821294}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7944EAF-7108-46AE-AA97-FD0E6DED5D51}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D207A079-0A20-455B-94F9-002285B339E6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6985B4BF-6C63-45FE-8835-FA093339053F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47052D26-82DD-4C07-91BD-269BD644CFA8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1D6681DA-1EDB-42D8-B0AD-3B90E762E9A7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8970,7 +8970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93846A7F-6DEA-435C-BC7F-FEC77C502455}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F8722F-9CB8-49C2-9E0E-A8CA45C7DE18}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10230,18 +10230,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D5EE65C0-968B-4690-901D-E7A7B672B59D}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{0D6E8462-0AF8-43FE-A63C-BD42611B4DE9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{410AEEEB-4B04-4A4B-8FD3-F93A14BF8127}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{87A5887B-1FF7-451D-BE9B-883E75EA2F86}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36F10C83-5EA7-4D91-B980-A3C25935D82E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8FC69D16-FCFE-4C14-B509-2741C9E9B328}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BAA031D1-FA36-4823-A8E9-BE1493AD451F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D6CBFCD6-254C-47EC-80E2-C501D763406C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3E95BCFD-2F9C-4E02-ADE7-34E251516FF0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CAA500D1-02A7-44AE-84CC-18A687E0B921}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{17377171-2009-4E00-9C2E-3490CE61154D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37908319-A414-4068-9562-1E5143A3DF40}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B110DAE-1208-438E-8E02-19D050194CDA}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{AEA011E3-B973-465E-A822-1582ED2E6997}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7A1E2C8E-EDE3-43F7-9826-4ADFC416815C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6D22B49C-97F9-4C17-8A3F-F881F349EA4C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DAA36EC3-6F6F-402F-A9B2-78C0F65E684F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E377E00A-FA7A-4DF6-BA4E-6B834E9FEB82}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{343175E7-3EAF-488F-9785-FAFBDCCFBC54}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{03BF0B88-25DF-4F2C-992F-FB3EC3CBA59C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B576D048-7E88-4B6A-A608-5CAF00B2DF8D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{62E7CA3B-09D1-46BA-BCD3-12A6C3F09421}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4E46F01-804B-4A0D-88DD-4B2B0F1521E4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7C218508-2DAD-4497-8DC5-D8221816FA15}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10254,7 +10254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46EFA0B-9238-4665-A610-911DA0E2C7ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E393D8DD-95AB-44D7-8717-1BD0E2907CBD}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11514,18 +11514,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{26505CDC-1715-4A7F-A38D-12857F2CA7A9}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{4E167329-501A-4587-B4B9-B1C0CD783297}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DCF7E201-F3BF-44FF-9CB5-DFD9B9C5EF4F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B4164DB2-CA21-40DD-B33E-CBD138D0EB98}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{79860A74-B99D-457B-9D5B-6821FFD541E5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6562E785-1E7E-43B9-923F-ED99F8F5DE73}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F63542D4-FFCF-493A-8F13-B075F89CC0E7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{76FBB39B-C671-4E6A-BC6A-DEFD5FA37E33}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FDF9608E-E908-4366-98A4-E31ABB49B90A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8DC62B76-167E-4E30-A0DE-DA9D9E7DBFB7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{05DA78B7-FE27-40C0-8A57-B53BCADF6120}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4FC5D67C-EC2E-4316-8252-B623AFC57F33}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72B9F851-C783-4145-A681-B2649F039B18}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{59B5E278-7A58-401A-A4EE-B063701A7B57}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{106B7DDC-1C41-470D-A528-C5252C01720E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{73F951F0-C687-4080-99E8-F4870192E6FB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8CA9E9CC-D66C-4F72-A6B9-6C19410DD26F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F3D759A8-156A-44B8-80D1-CC7D1E290C17}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0E7977BA-10EE-418B-A942-0D8FDEC6618B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A0A9CAF3-93FC-43FC-8BDC-ED16C4EEF2AC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{790DB499-F460-464D-B128-9318593DCCF7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8A2FC9A9-1FC6-4990-BEF6-44FBF487C25A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4DCAEE1F-FEDC-41E6-B2A5-1EE1656A3234}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C4A0861B-2993-41A3-B762-F1DA75DE5114}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11538,7 +11538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833AD451-7EC3-47BF-B7D3-0E0B478E2D8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84AA084-D078-4200-A6EB-77BB930F40DA}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12790,18 +12790,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E2B59F1-E7F0-46B5-8AB6-A24728D59A32}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{FA86FEDB-09FA-40F1-B7F3-C1312476712B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5340704C-026C-4340-BE87-713AC728D071}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EEBBC074-2767-4668-BAEF-E63225BE0869}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B6A805B0-D548-439B-A682-F4D84E6E5E4E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{022E8E12-6631-4FC5-86A1-0598ED4A911C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FCE71381-E812-40C6-B3BE-475F587C2FCA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{19DA8018-52AC-4E17-AB40-E60DDC8521D5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ACBF0B68-53BC-4F05-A95E-FAD8E7716917}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{67B8E291-699B-4534-A906-E62301F7275A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FDBD46D9-2FD5-4098-8148-01D1742FEB74}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0DE91BD3-AEEA-4930-AD35-E2B65E4C071B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5261965F-D4AE-42E1-9A68-391187DAF6FB}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{155B596E-FCF8-457F-AAB6-2D8DB9C14BE7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{93BCF1FC-0677-4F46-9DCE-C1BE0CAECC35}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1BA19C69-34D8-4AAE-93FD-A845227F93C7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EF5770CA-9E1B-44B8-B1C5-35735A22F8EA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E93DC2F8-2EAB-4545-B7CE-EBBAFE40C2B2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{23F009AD-292A-4560-B673-ECC810C260E0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A9E7F0BD-FE4B-463C-ACCF-F8BAB8DF22E5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8286A82-5610-4C1D-B0B4-A442FAFB883E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E7936C7D-636A-4134-BBB6-C8E6DA6F2F62}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5CEEE481-AFF3-4CEA-AAAC-7A14DD0BF089}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3FF274C1-DDB2-4D97-8DA7-E7E239664FD3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12814,7 +12814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29CCA4C-4C25-48EF-B639-60DAC55ED632}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD1FEB4-C5FB-42D1-9DEF-C003BDBE202B}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14066,18 +14066,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8650C675-A257-4607-8F23-7D6FC1628250}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{788913A9-1B28-42B6-8200-32DDDF0717AF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D2FFC7AD-6369-4372-A4F8-838D24DE52F7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FC720269-5117-44D4-BD1F-D6FD1D40B3E1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3C14AC86-D138-43DA-93D1-B3AC5DB49501}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D2558E91-4CF8-4E81-BAD8-5271CDA848E5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{04B9AB67-FC7F-4F24-B0E7-1C222D6ABF95}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BC4DF761-C76C-4A4B-A509-0D04571E78A4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AEB5AA71-B5F2-4B95-87E4-F88145C8B6B5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FF3EF7FE-7441-4477-9AAF-8CBC5C0E51AE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{108D607D-9FB8-42FC-ACC2-8CC25607B8E5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5931603A-40C1-4093-8F88-0B9C7AA7162E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6FEB6EDF-9DD7-41FC-A88E-4948ACC4DDB5}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{59CB5E6A-8E9B-4C5B-B121-7579C8E6C870}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7FEBE93A-7835-44B5-8228-CB184195AD2C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DEC514E6-5B42-445E-A666-D53DAC101EB0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{73DD502C-AA4E-46F7-A38D-EECFAF63EDCE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{59B0FD24-32B4-43EA-8C4E-77C12B26F453}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{953B6D37-BB12-4E16-BC5B-48D8C69A02AB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{95F0C6E7-2AD1-4B2B-B936-C5525CCF13D5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{757BC84B-381B-4A40-B662-26BBC694E16F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E87D9B1D-0AA4-4E14-8E07-D1549E84764E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A2E69228-645D-40B1-8A71-B79623A24F35}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{746DB91A-9172-4EF5-A4D7-CD6758F3B516}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14090,7 +14090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48404DF4-12EC-4A0B-907F-DAB544A2910E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809F8627-B6DC-4A69-A771-E346A22F4896}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15342,18 +15342,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{037E400F-3F77-4D38-9988-DAA6AFFA3614}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{6AFC07C5-40FA-4860-A6C3-E932E7886B7D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D80EE294-AB42-4B31-99DD-1E06EA8C8B44}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{74CB00BB-EEBD-4618-A388-EB2DCF877CBB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D65187F-453A-4E24-8687-DB742D4759A9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C0C93E9E-FB20-43AF-84E6-8F82AE7EC48C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{87B6EC9E-1A6A-4407-A535-D54FA0FB34AC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72A00ADD-6E5A-4005-A65E-23A3B8E3803D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6DD73D1F-F5DB-492C-927F-A03D50710F62}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C9A7CE27-1DD3-441D-BEF8-78050B6781F1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A76AFD8-8F1F-4D99-9F1F-433FAE91E4E2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8AD12A11-850B-4972-B092-0B0202979F2C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DED2613D-83DE-47BC-A1E1-6D3A120483D3}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{8D0E3E73-AD4C-4055-A236-561289A72192}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{39B5C01F-DA62-4E83-B7BD-B2618F6CEA03}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{60250BFD-EBA9-44C3-ACA2-9FC8039BCD7C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B326C764-591A-4240-9234-86B2B0A1DB1F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{65165900-F3C4-4822-966F-7802A67CFC29}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{726E6CA6-F276-4DF5-8300-9D10E001ABAE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{90F683B7-AF37-4223-A6AF-B364ED9383ED}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0735B59F-5D88-4EB1-BC39-11E33FEC7455}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C6E30704-7E9C-4B22-873A-CC825337DA01}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AB5C3CD6-F932-417E-82D2-2C012308826D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8E2EA738-F29E-4412-9EE4-43E7A20C0B7B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15366,7 +15366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA4F690-E044-4ECD-B021-744ECAEAFAFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8446BA3-95E7-4AA3-9405-2A147029FFAB}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16618,18 +16618,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{848D1AC2-C722-4172-BC5A-9306A6195CC5}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{D0008377-2531-4124-A88B-BCFC00D459B9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{103C83D9-E2CF-4894-A3B4-B20BB94967F6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F543E08E-8A42-40E8-9A08-2D2E5312A376}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1AEF611A-BFA9-4C2F-A9A8-5F32694AB7E1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C947F2B3-F4C9-4D00-96F4-1D04594E3ED3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{564BD3EB-B525-4F4E-98E3-FCD0DBEB26A0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{765A9234-EDC4-44D8-9EAD-201014EE00A5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C6106172-2AF7-4539-AB66-56CFE807057F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1B1B0410-97C1-4865-A96D-BDD2DE626934}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{17114659-83F8-431C-8420-DCB1895978E3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8C622A3A-CFE3-4A4C-BAB8-7FB36FEA43E4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DCBE8EEE-804F-411A-8CDC-5D7FCDDC81A2}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{B30306BC-23AC-46B9-B668-A08D783C5FEE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{25378ACF-042D-4D1E-8199-62C4036E3E0C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{536643E1-4551-43EB-981B-55022C017C2B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B4B30C44-D032-4DC2-8E11-CFF750E17F98}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3940B0B4-C534-41DD-BE0C-49BEFAC1D344}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B41C5784-6996-4F02-AEA2-B5983938BE5D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{39124092-F346-4CCF-9546-BF0EBA078F75}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{61CD262D-7212-42A2-9E0A-3999972200AF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{50E6EC7B-29A3-45FA-9F2B-98F76333F50B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC181769-7A36-45AD-86D2-A453FD2A8FA2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5E2DEABE-888A-4517-B916-0E02FEB21C7F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
